--- a/assets/resources/documents/FedRAMP_Security_Controls_Baseline_Rev5_Rev4_comparison_Summary.xlsx
+++ b/assets/resources/documents/FedRAMP_Security_Controls_Baseline_Rev5_Rev4_comparison_Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Daniela.Aburto/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiva.alipour/Library/CloudStorage/GoogleDrive-shiva.alipour@theclearing.com/.shortcut-targets-by-id/0B-kDjNiRnhdvTS13YjR2d0VyTGM/Graphics/TC Visual Design/Client/GSA/FedRAMP/Documents/GSA-4783 FedRAMP Rev5 Updates/In Progress/FedRAMP_Security_Controls_Baseline_Rev 5_Rev 4 comparison_Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97654E8C-BF64-0A42-9FD8-FD795A80F889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99E532CF-0D6A-C745-AAE3-201C3BB94756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35760" windowHeight="19160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8200" yWindow="760" windowWidth="26360" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V2 FR 800-53 r4 to r5 Changes" sheetId="28" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14884" uniqueCount="3286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14880" uniqueCount="3286">
   <si>
     <t>AC-1</t>
   </si>
@@ -12080,9 +12080,7 @@
   </sheetPr>
   <dimension ref="A1:MR1887"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15442,7 +15440,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" s="31" t="s">
         <v>61</v>
       </c>
@@ -15928,7 +15926,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A87" s="31" t="s">
         <v>68</v>
       </c>
@@ -18645,7 +18643,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A154" s="24" t="s">
         <v>122</v>
       </c>
@@ -18713,7 +18711,7 @@
         <v>3278</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="238" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" ht="221" x14ac:dyDescent="0.2">
       <c r="A156" s="24" t="s">
         <v>123</v>
       </c>
@@ -19615,7 +19613,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="24" t="s">
         <v>145</v>
       </c>
@@ -22404,7 +22402,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A247" s="31" t="s">
         <v>197</v>
       </c>
@@ -22849,7 +22847,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="238" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" ht="221" x14ac:dyDescent="0.2">
       <c r="A258" s="24" t="s">
         <v>202</v>
       </c>
@@ -24725,7 +24723,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A304" s="24" t="s">
         <v>243</v>
       </c>
@@ -26507,7 +26505,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="348" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A348" s="24" t="s">
         <v>279</v>
       </c>
@@ -38741,8 +38739,8 @@
   </sheetPr>
   <dimension ref="A1:AR1193"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" topLeftCell="A1102" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J1119" sqref="J1119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -70838,11 +70836,11 @@
       <c r="D1107" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="E1107" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="F1107" s="11" t="s">
-        <v>476</v>
+      <c r="E1107" s="11">
+        <v>1</v>
+      </c>
+      <c r="F1107" s="11">
+        <v>1</v>
       </c>
       <c r="G1107" s="11" t="s">
         <v>476</v>
@@ -71215,11 +71213,11 @@
       <c r="D1120" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="E1120" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="F1120" s="11" t="s">
-        <v>476</v>
+      <c r="E1120" s="11">
+        <v>1</v>
+      </c>
+      <c r="F1120" s="11">
+        <v>1</v>
       </c>
       <c r="G1120" s="11" t="s">
         <v>476</v>
@@ -71244,12 +71242,8 @@
       <c r="D1121" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="E1121" s="11">
-        <v>1</v>
-      </c>
-      <c r="F1121" s="11">
-        <v>1</v>
-      </c>
+      <c r="E1121" s="11"/>
+      <c r="F1121" s="11"/>
       <c r="G1121" s="11" t="s">
         <v>476</v>
       </c>
@@ -73353,8 +73347,44 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:I1193">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="C5:I1106 C1108:I1119 C1122:I1193">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF4BABC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1107:I1107">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF4BABC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1120:I1120">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF4BABC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1121:I1121">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -73376,7 +73406,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{77F9EAEB-968B-4968-9D56-92827A9FFBE0}">
+          <x14:cfRule type="iconSet" priority="7" id="{77F9EAEB-968B-4968-9D56-92827A9FFBE0}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -73392,7 +73422,64 @@
               <x14:cfIcon iconSet="5Quarters" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C5:I1193</xm:sqref>
+          <xm:sqref>C5:I1106 C1108:I1119 C1122:I1193</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="5" id="{01FB458E-7486-DD4E-8DF2-A2F123F840EC}">
+            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C1107:I1107</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{2CD6E8B7-0E04-F04B-817C-2EC1087A9008}">
+            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C1120:I1120</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{4813F558-D107-3149-A621-9DAD52BE3BE3}">
+            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>C1121:I1121</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/assets/resources/documents/FedRAMP_Security_Controls_Baseline_Rev5_Rev4_comparison_Summary.xlsx
+++ b/assets/resources/documents/FedRAMP_Security_Controls_Baseline_Rev5_Rev4_comparison_Summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiva.alipour/Library/CloudStorage/GoogleDrive-shiva.alipour@theclearing.com/.shortcut-targets-by-id/0B-kDjNiRnhdvTS13YjR2d0VyTGM/Graphics/TC Visual Design/Client/GSA/FedRAMP/Documents/GSA-4783 FedRAMP Rev5 Updates/In Progress/FedRAMP_Security_Controls_Baseline_Rev 5_Rev 4 comparison_Summary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiva.alipour/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99E532CF-0D6A-C745-AAE3-201C3BB94756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE70BA6-48A9-F24D-AA6D-C1CD44241ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8200" yWindow="760" windowWidth="26360" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3700" yWindow="1820" windowWidth="30200" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V2 FR 800-53 r4 to r5 Changes" sheetId="28" r:id="rId1"/>
@@ -11152,7 +11152,7 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{2340E586-BFB4-4F19-AD38-F710E4EE25C7}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{D76210C3-B24B-4FFD-83F7-5601818FB2C7}"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="24">
     <dxf>
       <font>
         <b val="0"/>
@@ -11824,16 +11824,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -15440,7 +15430,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A75" s="31" t="s">
         <v>61</v>
       </c>
@@ -15926,7 +15916,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="85" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A87" s="31" t="s">
         <v>68</v>
       </c>
@@ -18643,7 +18633,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A154" s="24" t="s">
         <v>122</v>
       </c>
@@ -18711,7 +18701,7 @@
         <v>3278</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" ht="238" x14ac:dyDescent="0.2">
       <c r="A156" s="24" t="s">
         <v>123</v>
       </c>
@@ -19613,7 +19603,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A178" s="24" t="s">
         <v>145</v>
       </c>
@@ -22402,7 +22392,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A247" s="31" t="s">
         <v>197</v>
       </c>
@@ -22847,7 +22837,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" ht="238" x14ac:dyDescent="0.2">
       <c r="A258" s="24" t="s">
         <v>202</v>
       </c>
@@ -24723,7 +24713,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A304" s="24" t="s">
         <v>243</v>
       </c>
@@ -26505,7 +26495,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="348" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A348" s="24" t="s">
         <v>279</v>
       </c>
@@ -30756,84 +30746,84 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="453" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A453" s="31" t="s">
+    <row r="453" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A453" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="B453" s="25" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C453" s="32" t="s">
+        <v>3132</v>
+      </c>
+      <c r="D453" s="32" t="s">
+        <v>3132</v>
+      </c>
+      <c r="E453" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="F453" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="G453" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="H453" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="I453" s="28" t="s">
+        <v>477</v>
+      </c>
+      <c r="J453" s="29"/>
+      <c r="K453" s="30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L453" s="30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M453" s="30" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A454" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="B453" s="31" t="s">
+      <c r="B454" s="31" t="s">
         <v>817</v>
       </c>
-      <c r="C453" s="26" t="s">
+      <c r="C454" s="26" t="s">
         <v>817</v>
       </c>
-      <c r="D453" s="26" t="s">
+      <c r="D454" s="26" t="s">
         <v>817</v>
       </c>
-      <c r="E453" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="F453" s="27" t="s">
+      <c r="E454" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="F454" s="27" t="s">
         <v>817</v>
       </c>
-      <c r="G453" s="27" t="s">
+      <c r="G454" s="27" t="s">
         <v>817</v>
       </c>
-      <c r="H453" s="27" t="s">
-        <v>476</v>
-      </c>
-      <c r="I453" s="28" t="s">
+      <c r="H454" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="I454" s="28" t="s">
         <v>475</v>
       </c>
-      <c r="J453" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="K453" s="30" t="s">
+      <c r="J454" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="K454" s="30" t="s">
         <v>469</v>
       </c>
-      <c r="L453" s="30" t="s">
+      <c r="L454" s="30" t="s">
         <v>1106</v>
       </c>
-      <c r="M453" s="30" t="s">
+      <c r="M454" s="30" t="s">
         <v>1292</v>
-      </c>
-    </row>
-    <row r="454" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A454" s="24" t="s">
-        <v>468</v>
-      </c>
-      <c r="B454" s="25" t="s">
-        <v>3132</v>
-      </c>
-      <c r="C454" s="32" t="s">
-        <v>3132</v>
-      </c>
-      <c r="D454" s="32" t="s">
-        <v>3132</v>
-      </c>
-      <c r="E454" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="F454" s="27" t="s">
-        <v>476</v>
-      </c>
-      <c r="G454" s="27" t="s">
-        <v>476</v>
-      </c>
-      <c r="H454" s="27" t="s">
-        <v>476</v>
-      </c>
-      <c r="I454" s="28" t="s">
-        <v>477</v>
-      </c>
-      <c r="J454" s="29"/>
-      <c r="K454" s="30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L454" s="30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M454" s="30" t="e">
-        <v>#N/A</v>
       </c>
     </row>
     <row r="455" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -38691,38 +38681,33 @@
     <mergeCell ref="K1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="C475:C1048576 F475:F1048576 F3:F473 C3:C473">
-    <cfRule type="uniqueValues" dxfId="24" priority="10"/>
+    <cfRule type="uniqueValues" dxfId="23" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G475:G1048576 D475:D1048576 D3:D473 G3:G473">
-    <cfRule type="uniqueValues" dxfId="23" priority="9"/>
+    <cfRule type="uniqueValues" dxfId="22" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H475:H1048576 E475:E1048576 E3:E473 H3:H111 H113:H315 H317:H393 H396:H411 H414:H473">
-    <cfRule type="uniqueValues" dxfId="22" priority="8"/>
+  <conditionalFormatting sqref="H475:H1048576 E475:E1048576 H3:H111 H113:H315 H317:H393 H396:H411 E3:E473 H414:H473">
+    <cfRule type="uniqueValues" dxfId="21" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K473">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+  <conditionalFormatting sqref="J3:K473">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H112">
-    <cfRule type="uniqueValues" dxfId="20" priority="6"/>
+    <cfRule type="uniqueValues" dxfId="19" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H316">
-    <cfRule type="uniqueValues" dxfId="19" priority="5"/>
+    <cfRule type="uniqueValues" dxfId="18" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H394">
-    <cfRule type="uniqueValues" dxfId="18" priority="4"/>
+    <cfRule type="uniqueValues" dxfId="17" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H395">
-    <cfRule type="uniqueValues" dxfId="17" priority="3"/>
+    <cfRule type="uniqueValues" dxfId="16" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H412:H413">
-    <cfRule type="uniqueValues" dxfId="16" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J473">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
+    <cfRule type="uniqueValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38739,8 +38724,8 @@
   </sheetPr>
   <dimension ref="A1:AR1193"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A1102" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J1119" sqref="J1119"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -38802,10 +38787,10 @@
         <v>149</v>
       </c>
       <c r="E3" s="17">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F3" s="17">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G3" s="17">
         <v>156</v>
@@ -73347,44 +73332,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C5:I1106 C1108:I1119 C1122:I1193">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF4BABC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1107:I1107">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF4BABC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1120:I1120">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF4BABC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1121:I1121">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="C5:I1193">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -73406,7 +73355,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{77F9EAEB-968B-4968-9D56-92827A9FFBE0}">
+          <x14:cfRule type="iconSet" priority="1" id="{77F9EAEB-968B-4968-9D56-92827A9FFBE0}">
             <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -73422,64 +73371,7 @@
               <x14:cfIcon iconSet="5Quarters" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>C5:I1106 C1108:I1119 C1122:I1193</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{01FB458E-7486-DD4E-8DF2-A2F123F840EC}">
-            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>33</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>67</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C1107:I1107</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{2CD6E8B7-0E04-F04B-817C-2EC1087A9008}">
-            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>33</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>67</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C1120:I1120</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{4813F558-D107-3149-A621-9DAD52BE3BE3}">
-            <x14:iconSet iconSet="3Symbols" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>33</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>67</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
-              <x14:cfIcon iconSet="5Quarters" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>C1121:I1121</xm:sqref>
+          <xm:sqref>C5:I1193</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/assets/resources/documents/FedRAMP_Security_Controls_Baseline_Rev5_Rev4_comparison_Summary.xlsx
+++ b/assets/resources/documents/FedRAMP_Security_Controls_Baseline_Rev5_Rev4_comparison_Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiva.alipour/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE70BA6-48A9-F24D-AA6D-C1CD44241ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B2621D-4983-C34F-ABAE-805E1C60A3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="1820" windowWidth="30200" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="760" windowWidth="28200" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V2 FR 800-53 r4 to r5 Changes" sheetId="28" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'FR 800-53r5 Baseline Comparison'!$A$4:$I$1193</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'V2 FR 800-53 r4 to r5 Changes'!$A$2:$A$474</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'V2 FR 800-53 r4 to r5 Changes'!$A$2:$A$473</definedName>
     <definedName name="NIST_800_53_3_DHS_N_HHH_Sorted">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14880" uniqueCount="3286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14868" uniqueCount="3286">
   <si>
     <t>AC-1</t>
   </si>
@@ -11155,6 +11155,96 @@
   <dxfs count="24">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -11734,96 +11824,6 @@
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -11847,21 +11847,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FAD32AD-BD9F-440E-A163-BE80395C0F2F}" name="Table1" displayName="Table1" ref="B2:M473" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="B2:M473" xr:uid="{3FAD32AD-BD9F-440E-A163-BE80395C0F2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3FAD32AD-BD9F-440E-A163-BE80395C0F2F}" name="Table1" displayName="Table1" ref="B2:M472" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
+  <autoFilter ref="B2:M472" xr:uid="{3FAD32AD-BD9F-440E-A163-BE80395C0F2F}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{DA7678BC-436B-4C0D-A83C-53B250DC576B}" name="Sort ID" dataDxfId="11" dataCellStyle="Normal 2 2"/>
-    <tableColumn id="2" xr3:uid="{998CA431-DCAF-46D5-8437-D23D5B190712}" name="FedRAMP_x000a_rev4 HIGH" dataDxfId="10" dataCellStyle="Normal 2 2"/>
-    <tableColumn id="3" xr3:uid="{0D8F4FBE-4A1B-478D-AFC4-827A2DD136B4}" name="FedRAMP_x000a_rev4 MOD" dataDxfId="9" dataCellStyle="Normal 2 2"/>
-    <tableColumn id="4" xr3:uid="{806568A8-1C50-400A-BA23-130BB91B460F}" name="FedRAMP_x000a_rev4 LOW" dataDxfId="8" dataCellStyle="Normal 2 2"/>
-    <tableColumn id="5" xr3:uid="{0BE51A38-D109-4C1A-B516-53C2F1414973}" name="FedRAMP_x000a_rev5 HIGH" dataDxfId="7" dataCellStyle="Normal 2 2"/>
-    <tableColumn id="6" xr3:uid="{705576B5-271A-40F9-A58E-953209694C1A}" name="FedRAMP_x000a_rev5 MOD" dataDxfId="6" dataCellStyle="Normal 2 2"/>
-    <tableColumn id="7" xr3:uid="{C00B7741-F597-4C6C-BBB0-717B76F6D4C4}" name="FedRAMP_x000a_rev5 Low" dataDxfId="5" dataCellStyle="Normal 2 2"/>
-    <tableColumn id="8" xr3:uid="{23EF2A81-D579-459F-91EB-AA6A6CC2DD31}" name="Control Change" dataDxfId="4" dataCellStyle="Normal 2 2"/>
-    <tableColumn id="9" xr3:uid="{E4B4DEC8-BF05-41ED-AC7A-B7905A055EC4}" name="Paramenter, Guidance, or Requirement Change" dataDxfId="3" dataCellStyle="Normal 2 2"/>
-    <tableColumn id="10" xr3:uid="{4A5D1B82-EBB0-499A-90A8-2CF22C08BAED}" name="More than editorial or administrative change" dataDxfId="2" dataCellStyle="Normal 2 2"/>
-    <tableColumn id="11" xr3:uid="{DBF09E34-A0A8-4A9B-8303-934262291581}" name="Changed Elements" dataDxfId="1" dataCellStyle="Normal 2 2"/>
-    <tableColumn id="12" xr3:uid="{68154FE4-36E0-4063-AB59-F5FED8DC0C53}" name="Details" dataDxfId="0" dataCellStyle="Normal 2 2"/>
+    <tableColumn id="1" xr3:uid="{DA7678BC-436B-4C0D-A83C-53B250DC576B}" name="Sort ID" dataDxfId="20" dataCellStyle="Normal 2 2"/>
+    <tableColumn id="2" xr3:uid="{998CA431-DCAF-46D5-8437-D23D5B190712}" name="FedRAMP_x000a_rev4 HIGH" dataDxfId="19" dataCellStyle="Normal 2 2"/>
+    <tableColumn id="3" xr3:uid="{0D8F4FBE-4A1B-478D-AFC4-827A2DD136B4}" name="FedRAMP_x000a_rev4 MOD" dataDxfId="18" dataCellStyle="Normal 2 2"/>
+    <tableColumn id="4" xr3:uid="{806568A8-1C50-400A-BA23-130BB91B460F}" name="FedRAMP_x000a_rev4 LOW" dataDxfId="17" dataCellStyle="Normal 2 2"/>
+    <tableColumn id="5" xr3:uid="{0BE51A38-D109-4C1A-B516-53C2F1414973}" name="FedRAMP_x000a_rev5 HIGH" dataDxfId="16" dataCellStyle="Normal 2 2"/>
+    <tableColumn id="6" xr3:uid="{705576B5-271A-40F9-A58E-953209694C1A}" name="FedRAMP_x000a_rev5 MOD" dataDxfId="15" dataCellStyle="Normal 2 2"/>
+    <tableColumn id="7" xr3:uid="{C00B7741-F597-4C6C-BBB0-717B76F6D4C4}" name="FedRAMP_x000a_rev5 Low" dataDxfId="14" dataCellStyle="Normal 2 2"/>
+    <tableColumn id="8" xr3:uid="{23EF2A81-D579-459F-91EB-AA6A6CC2DD31}" name="Control Change" dataDxfId="13" dataCellStyle="Normal 2 2"/>
+    <tableColumn id="9" xr3:uid="{E4B4DEC8-BF05-41ED-AC7A-B7905A055EC4}" name="Paramenter, Guidance, or Requirement Change" dataDxfId="12" dataCellStyle="Normal 2 2"/>
+    <tableColumn id="10" xr3:uid="{4A5D1B82-EBB0-499A-90A8-2CF22C08BAED}" name="More than editorial or administrative change" dataDxfId="11" dataCellStyle="Normal 2 2"/>
+    <tableColumn id="11" xr3:uid="{DBF09E34-A0A8-4A9B-8303-934262291581}" name="Changed Elements" dataDxfId="10" dataCellStyle="Normal 2 2"/>
+    <tableColumn id="12" xr3:uid="{68154FE4-36E0-4063-AB59-F5FED8DC0C53}" name="Details" dataDxfId="9" dataCellStyle="Normal 2 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12068,7 +12068,7 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:MR1887"/>
+  <dimension ref="A1:MR1886"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
@@ -31536,74 +31536,40 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="473" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A473" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="B473" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="C473" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="D473" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="E473" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="F473" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="G473" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="H473" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="I473" s="28" t="s">
-        <v>477</v>
-      </c>
-      <c r="J473" s="28"/>
-      <c r="K473" s="30" t="s">
-        <v>469</v>
-      </c>
-      <c r="L473" s="30" t="s">
-        <v>1169</v>
-      </c>
-      <c r="M473" s="30" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A474" s="21" t="s">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A473" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="B474" s="21" t="s">
+      <c r="B473" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="C474" s="22">
+      <c r="C473" s="22">
         <v>421</v>
       </c>
-      <c r="D474" s="22">
+      <c r="D473" s="22">
         <v>325</v>
       </c>
-      <c r="E474" s="22">
+      <c r="E473" s="22">
         <v>125</v>
       </c>
-      <c r="F474" s="23">
+      <c r="F473" s="23">
         <v>410</v>
       </c>
-      <c r="G474" s="23">
+      <c r="G473" s="23">
         <v>323</v>
       </c>
-      <c r="H474" s="23">
+      <c r="H473" s="23">
         <v>156</v>
       </c>
-      <c r="J474" s="2">
+      <c r="J473" s="2">
         <f>COUNTIF(Table1[Paramenter, Guidance, or Requirement Change],"Y")</f>
         <v>134</v>
       </c>
+      <c r="K473" s="16"/>
+      <c r="L473" s="16"/>
+      <c r="M473" s="16"/>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K474" s="16"/>
       <c r="L474" s="16"/>
       <c r="M474" s="16"/>
@@ -38668,46 +38634,41 @@
       <c r="L1886" s="16"/>
       <c r="M1886" s="16"/>
     </row>
-    <row r="1887" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K1887" s="16"/>
-      <c r="L1887" s="16"/>
-      <c r="M1887" s="16"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:A474" xr:uid="{3C99A039-C21E-4387-8E2C-0035A083F5E2}"/>
+  <autoFilter ref="A2:A473" xr:uid="{3C99A039-C21E-4387-8E2C-0035A083F5E2}"/>
   <mergeCells count="3">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="K1:M1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C475:C1048576 F475:F1048576 F3:F473 C3:C473">
-    <cfRule type="uniqueValues" dxfId="23" priority="10"/>
+  <conditionalFormatting sqref="C474:C1048576 F474:F1048576 F3:F472 C3:C472">
+    <cfRule type="uniqueValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G475:G1048576 D475:D1048576 D3:D473 G3:G473">
-    <cfRule type="uniqueValues" dxfId="22" priority="9"/>
+  <conditionalFormatting sqref="G474:G1048576 D474:D1048576 D3:D472 G3:G472">
+    <cfRule type="uniqueValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H475:H1048576 E475:E1048576 H3:H111 H113:H315 H317:H393 H396:H411 E3:E473 H414:H473">
-    <cfRule type="uniqueValues" dxfId="21" priority="8"/>
+  <conditionalFormatting sqref="H112">
+    <cfRule type="uniqueValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:K473">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+  <conditionalFormatting sqref="H316">
+    <cfRule type="uniqueValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H394">
+    <cfRule type="uniqueValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H395">
+    <cfRule type="uniqueValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H412:H413">
+    <cfRule type="uniqueValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H474:H1048576 E474:E1048576 H3:H111 H113:H315 H317:H393 H396:H411 E3:E472 H414:H472">
+    <cfRule type="uniqueValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:K472">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H112">
-    <cfRule type="uniqueValues" dxfId="19" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H316">
-    <cfRule type="uniqueValues" dxfId="18" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H394">
-    <cfRule type="uniqueValues" dxfId="17" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H395">
-    <cfRule type="uniqueValues" dxfId="16" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H412:H413">
-    <cfRule type="uniqueValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
